--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1040836.398789871</v>
+        <v>-1043177.371949041</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836239</v>
+        <v>6654055.582836232</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>104.409931548922</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>202.7257352904506</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>121.0956825661075</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.6686701349851</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>154.8229679689706</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>44.1381194658201</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>63.86368267430456</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>40.68164393332412</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>41.92578789055069</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>72.46878910144345</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>297.5505666017714</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>129.0666178516128</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>60.79152971843317</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1531,13 +1531,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>80.00124118081804</v>
       </c>
       <c r="X13" t="n">
-        <v>51.92569699765788</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,10 +1622,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292652</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881762</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851122</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247769</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098733976844</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>53.82704427691619</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>94.29644372182167</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,10 +1859,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,10 +1895,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589029</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.23797643592182</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>135.5258373347962</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,16 +2239,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>116.8722680820406</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>28.20584125154421</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>79.54367350501126</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292569</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396202</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734075887</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>7.601081015446787</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491543</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396202</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734099341</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S31" t="n">
-        <v>173.626889274475</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>15.42290135054809</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734099341</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572902</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145481</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404367</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F40" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
         <v>172.5738126575766</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124555</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4198,7 +4198,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y46" t="n">
         <v>171.6095167335022</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1362.140678483279</v>
+        <v>917.3849144089118</v>
       </c>
       <c r="C2" t="n">
-        <v>1362.140678483279</v>
+        <v>811.9203370867683</v>
       </c>
       <c r="D2" t="n">
-        <v>1003.874979876529</v>
+        <v>453.6546384800178</v>
       </c>
       <c r="E2" t="n">
-        <v>1003.874979876529</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2398.652732053496</v>
       </c>
       <c r="V2" t="n">
-        <v>2478.514423990285</v>
+        <v>2067.589844709925</v>
       </c>
       <c r="W2" t="n">
-        <v>2125.745768720171</v>
+        <v>2067.589844709925</v>
       </c>
       <c r="X2" t="n">
-        <v>1752.280010459091</v>
+        <v>1694.124086448845</v>
       </c>
       <c r="Y2" t="n">
-        <v>1362.140678483279</v>
+        <v>1303.984754473033</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4434,7 +4434,7 @@
         <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
         <v>2289.884200196742</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257.3478788207</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C4" t="n">
-        <v>257.3478788207</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D4" t="n">
-        <v>257.3478788207</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>257.3478788207</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>409.5384547146243</v>
+        <v>571.7421478741406</v>
       </c>
       <c r="W4" t="n">
-        <v>409.5384547146243</v>
+        <v>571.7421478741406</v>
       </c>
       <c r="X4" t="n">
-        <v>409.5384547146243</v>
+        <v>571.7421478741406</v>
       </c>
       <c r="Y4" t="n">
-        <v>409.5384547146243</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1305.667163696621</v>
+        <v>1408.137349737077</v>
       </c>
       <c r="C5" t="n">
-        <v>1305.667163696621</v>
+        <v>1408.137349737077</v>
       </c>
       <c r="D5" t="n">
-        <v>947.4014650898705</v>
+        <v>1408.137349737077</v>
       </c>
       <c r="E5" t="n">
-        <v>947.4014650898705</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>536.415560300263</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>118.4517521984499</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.575150942547</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W5" t="n">
-        <v>1695.806495672433</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X5" t="n">
-        <v>1695.806495672433</v>
+        <v>1794.737189801198</v>
       </c>
       <c r="Y5" t="n">
-        <v>1305.667163696621</v>
+        <v>1794.737189801198</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4662,25 +4662,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>290.8087152951862</v>
+        <v>396.6060931634762</v>
       </c>
       <c r="C7" t="n">
-        <v>249.7161456655658</v>
+        <v>396.6060931634762</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F7" t="n">
         <v>99.59950625323012</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>290.8087152951862</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>290.8087152951862</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>290.8087152951862</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X7" t="n">
-        <v>290.8087152951862</v>
+        <v>396.6060931634762</v>
       </c>
       <c r="Y7" t="n">
-        <v>290.8087152951862</v>
+        <v>396.6060931634762</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1405.321187657107</v>
+        <v>1683.321707331112</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>1314.359190390701</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>956.0934917839502</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>956.0934917839502</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>545.1075869943427</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>127.1437788925296</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>127.1437788925296</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2165.386785982309</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W8" t="n">
-        <v>2165.386785982309</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X8" t="n">
-        <v>1791.921027721229</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y8" t="n">
-        <v>1791.921027721229</v>
+        <v>2069.921547395234</v>
       </c>
     </row>
     <row r="9">
@@ -4878,10 +4878,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761946</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C10" t="n">
-        <v>546.4805193761946</v>
+        <v>331.20325038051</v>
       </c>
       <c r="D10" t="n">
-        <v>546.4805193761946</v>
+        <v>331.20325038051</v>
       </c>
       <c r="E10" t="n">
-        <v>398.5674257938015</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>251.6774782958911</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>251.6774782958911</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064343</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="11">
@@ -5069,16 +5069,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
@@ -5118,10 +5118,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
         <v>794.2006632320242</v>
@@ -5136,22 +5136,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>578.4172407837245</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C13" t="n">
-        <v>409.4810578558177</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D13" t="n">
-        <v>409.4810578558177</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E13" t="n">
-        <v>409.4810578558177</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F13" t="n">
         <v>409.4810578558177</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1866.513008862232</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1577.410141987875</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V13" t="n">
-        <v>1322.725653781988</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="W13" t="n">
-        <v>1033.308483745028</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="X13" t="n">
-        <v>980.8582847574944</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="Y13" t="n">
-        <v>760.0657056139643</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
     <row r="14">
@@ -5255,55 +5255,55 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551628</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001593</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277716</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563069</v>
       </c>
       <c r="L14" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811476</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483398</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542177</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232737</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679681</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
         <v>4461.783306331038</v>
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.59277249732</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.139743216193</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494863</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468567</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939011</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919357</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320206</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454334</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008787</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.96131142684</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902941</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.10246054954</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>300.048425655595</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C16" t="n">
-        <v>300.048425655595</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D16" t="n">
-        <v>149.9317862432593</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E16" t="n">
         <v>95.56103444839442</v>
@@ -5434,52 +5434,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953295</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442051</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927004</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892248</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598112</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518525</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952183</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104697</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104697</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931524</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1542.890966501049</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>1542.890966501049</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208126</v>
+        <v>1288.206478295162</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838521</v>
+        <v>1192.957545242817</v>
       </c>
       <c r="X16" t="n">
-        <v>481.6968904858347</v>
+        <v>964.9679943448</v>
       </c>
       <c r="Y16" t="n">
-        <v>481.6968904858347</v>
+        <v>744.1754152012699</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
@@ -5501,10 +5501,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,28 +5513,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N17" t="n">
-        <v>2667.236715577531</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5546,13 +5546,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5583,7 +5583,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5592,28 +5592,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>873.220281864028</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="C19" t="n">
-        <v>704.2840989361212</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D19" t="n">
-        <v>704.2840989361212</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E19" t="n">
-        <v>556.371005353728</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5674,7 +5674,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1867.214196977509</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1675.528312804336</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.761697373862</v>
       </c>
       <c r="U19" t="n">
-        <v>1667.240599230347</v>
+        <v>1164.658830499505</v>
       </c>
       <c r="V19" t="n">
-        <v>1412.556111024461</v>
+        <v>909.9743422936185</v>
       </c>
       <c r="W19" t="n">
-        <v>1412.556111024461</v>
+        <v>620.5571722566579</v>
       </c>
       <c r="X19" t="n">
-        <v>1275.661325837798</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="Y19" t="n">
-        <v>1054.868746694268</v>
+        <v>392.5676213586405</v>
       </c>
     </row>
     <row r="20">
@@ -5729,22 +5729,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5756,40 +5756,40 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2949.638265046256</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3496.417082105038</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3999.389552984375</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>562.5269503710301</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C22" t="n">
-        <v>393.5907674431232</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D22" t="n">
-        <v>243.4741280307875</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F22" t="n">
         <v>95.56103444839442</v>
@@ -5935,25 +5935,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>901.3723255570255</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>783.3195295145603</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>562.5269503710301</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5999,34 +5999,34 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>2667.23671557753</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3547.201365906984</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>411.3871648742117</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C25" t="n">
-        <v>242.4509819463048</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="D25" t="n">
-        <v>242.4509819463048</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="E25" t="n">
         <v>242.4509819463048</v>
@@ -6190,7 +6190,7 @@
         <v>673.3827746590082</v>
       </c>
       <c r="Y25" t="n">
-        <v>593.0356297044514</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="26">
@@ -6203,73 +6203,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089254</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074196</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427188</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1549.639626139994</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483405</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542187</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.070220408989</v>
@@ -6300,31 +6300,31 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320235</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008793</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426848</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.46090290295</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.10246054955</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>270.9417306852379</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>270.9417306852379</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>270.9417306852379</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>270.9417306852379</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>270.9417306852379</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>103.2388940599568</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6400,34 +6400,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q28" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.51300886223</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1734.576850674229</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1445.473983799873</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1190.789495593986</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>901.3723255570251</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>673.3827746590077</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>452.5901955154776</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
         <v>2005.253839749764</v>
@@ -6446,34 +6446,34 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277727</v>
       </c>
       <c r="K29" t="n">
         <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.60335981148</v>
       </c>
       <c r="M29" t="n">
-        <v>2432.390822294612</v>
+        <v>2091.135264483404</v>
       </c>
       <c r="N29" t="n">
-        <v>2979.169639353394</v>
+        <v>2637.914081542186</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232731</v>
@@ -6540,25 +6540,25 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320235</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008793</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426848</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.46090290295</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839441</v>
@@ -6622,10 +6622,10 @@
         <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6637,34 +6637,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q31" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.51300886223</v>
       </c>
       <c r="S31" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384226</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783395</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="32">
@@ -6686,49 +6686,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277727</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1557.60335981148</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483404</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542186</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604874</v>
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320235</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6798,7 +6798,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6810,7 +6810,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215061</v>
+        <v>788.5151678215049</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416725</v>
+        <v>667.0286178416712</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774101</v>
+        <v>564.3616113774088</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430903</v>
+        <v>463.8981507430892</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932532</v>
+        <v>364.4578361932521</v>
       </c>
       <c r="G34" t="n">
-        <v>244.2046325160455</v>
+        <v>244.2046325160443</v>
       </c>
       <c r="H34" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819754</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477365</v>
       </c>
       <c r="K34" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490194</v>
       </c>
       <c r="L34" t="n">
-        <v>800.7468040499225</v>
+        <v>800.746804049922</v>
       </c>
       <c r="M34" t="n">
-        <v>1191.409234901878</v>
+        <v>1191.409234901877</v>
       </c>
       <c r="N34" t="n">
-        <v>1579.322996860149</v>
+        <v>1579.322996860148</v>
       </c>
       <c r="O34" t="n">
-        <v>1925.157981032969</v>
+        <v>1925.157981032968</v>
       </c>
       <c r="P34" t="n">
-        <v>2204.270866719035</v>
+        <v>2204.270866719034</v>
       </c>
       <c r="Q34" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123955</v>
       </c>
       <c r="R34" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829556</v>
       </c>
       <c r="S34" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604456</v>
       </c>
       <c r="T34" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U34" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V34" t="n">
-        <v>1518.564400937961</v>
+        <v>1518.564400937959</v>
       </c>
       <c r="W34" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X34" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036725</v>
+        <v>922.7139997036712</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
@@ -6926,55 +6926,55 @@
         <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
         <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1971.087962216428</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2504.619866888352</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420602</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
@@ -7017,10 +7017,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7047,7 +7047,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215063</v>
       </c>
       <c r="C37" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416727</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774103</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430905</v>
       </c>
       <c r="F37" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932535</v>
       </c>
       <c r="G37" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H37" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7120,7 +7120,7 @@
         <v>2286.005723829558</v>
       </c>
       <c r="S37" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T37" t="n">
         <v>1967.452490122057</v>
@@ -7129,16 +7129,16 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V37" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W37" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849074</v>
       </c>
       <c r="X37" t="n">
         <v>1096.056945899129</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036727</v>
       </c>
     </row>
     <row r="38">
@@ -7148,49 +7148,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277731</v>
+        <v>351.301436796792</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>685.1208104866384</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811482</v>
+        <v>1549.639626139993</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542189</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q38" t="n">
         <v>4653.975400188666</v>
@@ -7202,22 +7202,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7227,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390103</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193577</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320232</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
@@ -7284,7 +7284,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C40" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430898</v>
+        <v>463.8981507430896</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932528</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G40" t="n">
-        <v>244.204632516045</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H40" t="n">
         <v>145.4370786819757</v>
@@ -7333,10 +7333,10 @@
         <v>187.1890521477367</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490194</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7351,7 +7351,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829558</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036721</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="41">
@@ -7409,28 +7409,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F43" t="n">
         <v>364.4578361932524</v>
@@ -7573,10 +7573,10 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M43" t="n">
-        <v>1191.409234901878</v>
+        <v>1191.409234901877</v>
       </c>
       <c r="N43" t="n">
         <v>1579.322996860149</v>
@@ -7606,13 +7606,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,52 +7646,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1014.851249206416</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L44" t="n">
-        <v>1465.885462454824</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M44" t="n">
-        <v>1999.417367126749</v>
+        <v>2782.232616025902</v>
       </c>
       <c r="N44" t="n">
-        <v>2979.169639353395</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7725,22 +7725,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
         <v>2436.460902902953</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215057</v>
+        <v>788.515167821505</v>
       </c>
       <c r="C46" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416715</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774091</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430898</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932528</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7825,31 +7825,31 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604456</v>
       </c>
       <c r="T46" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V46" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937959</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036713</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836477018</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.261923898709938e-11</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,16 +9167,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>29.61882225792135</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,22 +9404,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P20" t="n">
-        <v>11.641534435788</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9647,10 +9647,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>29.61882225792044</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>161.0524397463302</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>2.345373895096259e-12</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>344.7025836476856</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476822</v>
+        <v>344.7025836476865</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10589,25 +10589,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>146.0713065388563</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>67.53663776704252</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476826</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>231.5010718068651</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>246.4545694808461</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22547,16 +22547,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>81.65832544027823</v>
+        <v>260.8629602220855</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>204.1503104512609</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>206.5217571557729</v>
       </c>
       <c r="X13" t="n">
-        <v>173.7839583913793</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>92.60691836965299</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983829</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004763</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>192.2265546147693</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0.6941762341255213</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>90.18381805424096</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,16 +24127,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>128.1651665445293</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24175,7 +24175,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>108.8373873069965</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>118.228121395025</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>139.0409798470835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>137.153933898874</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983813</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>105.0742887270149</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983813</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>16.14213605696685</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>271.1000969860429</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>-9.399148254162333e-13</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1269444.277432542</v>
+        <v>1269444.277432543</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1269444.277432542</v>
+        <v>1269444.277432543</v>
       </c>
     </row>
     <row r="16">
@@ -26317,43 +26317,43 @@
         <v>184734.3982194637</v>
       </c>
       <c r="D2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="E2" t="n">
-        <v>178686.8040991427</v>
+        <v>178686.8040991426</v>
       </c>
       <c r="F2" t="n">
         <v>178686.8040991424</v>
       </c>
       <c r="G2" t="n">
+        <v>178686.8040991426</v>
+      </c>
+      <c r="H2" t="n">
         <v>178686.8040991425</v>
       </c>
-      <c r="H2" t="n">
-        <v>178686.8040991427</v>
-      </c>
       <c r="I2" t="n">
-        <v>178686.8040991424</v>
+        <v>178686.8040991426</v>
       </c>
       <c r="J2" t="n">
         <v>178686.8040991426</v>
       </c>
       <c r="K2" t="n">
-        <v>178686.8040991425</v>
+        <v>178686.8040991426</v>
       </c>
       <c r="L2" t="n">
+        <v>184734.3982194639</v>
+      </c>
+      <c r="M2" t="n">
         <v>184734.3982194641</v>
-      </c>
-      <c r="M2" t="n">
-        <v>184734.398219464</v>
       </c>
       <c r="N2" t="n">
         <v>184734.3982194639</v>
       </c>
       <c r="O2" t="n">
+        <v>184734.3982194638</v>
+      </c>
+      <c r="P2" t="n">
         <v>184734.3982194639</v>
-      </c>
-      <c r="P2" t="n">
-        <v>184734.398219464</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-1.208955491504942e-09</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.651701151989983e-09</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925924</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487437</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389453</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153011.2610588576</v>
+        <v>153011.2610588578</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
@@ -26427,37 +26427,37 @@
         <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
+        <v>18148.49231919018</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18148.49231918991</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="I4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="G4" t="n">
-        <v>18148.49231918992</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18148.49231918993</v>
-      </c>
       <c r="J4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918999</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918995</v>
       </c>
       <c r="L4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740902</v>
       </c>
       <c r="M4" t="n">
-        <v>33605.65329740892</v>
+        <v>33605.65329740898</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740897</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="O4" t="n">
         <v>33605.65329740894</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740902</v>
       </c>
     </row>
     <row r="5">
@@ -26473,16 +26473,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371358</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371366</v>
@@ -26491,10 +26491,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371363</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371363</v>
       </c>
       <c r="L5" t="n">
         <v>100332.6710141021</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-653063.0257141596</v>
+        <v>-653195.9057763463</v>
       </c>
       <c r="C6" t="n">
-        <v>-81473.36670107374</v>
+        <v>-81473.36670107371</v>
       </c>
       <c r="D6" t="n">
-        <v>-81473.36670107376</v>
+        <v>-81473.3667010738</v>
       </c>
       <c r="E6" t="n">
-        <v>-663222.6204671673</v>
+        <v>-663289.8159573935</v>
       </c>
       <c r="F6" t="n">
-        <v>64154.79352623883</v>
+        <v>64087.59803601573</v>
       </c>
       <c r="G6" t="n">
-        <v>64154.79352623892</v>
+        <v>64087.59803601061</v>
       </c>
       <c r="H6" t="n">
-        <v>64154.79352623907</v>
+        <v>64087.5980360131</v>
       </c>
       <c r="I6" t="n">
-        <v>64154.79352623883</v>
+        <v>64087.59803601322</v>
       </c>
       <c r="J6" t="n">
-        <v>-112268.4256663538</v>
+        <v>-112335.6211565792</v>
       </c>
       <c r="K6" t="n">
-        <v>64154.79352623891</v>
+        <v>64087.59803601322</v>
       </c>
       <c r="L6" t="n">
-        <v>13215.96461307863</v>
+        <v>13215.96461307866</v>
       </c>
       <c r="M6" t="n">
-        <v>-78846.24093099184</v>
+        <v>-78846.2409309923</v>
       </c>
       <c r="N6" t="n">
-        <v>50796.07390795284</v>
+        <v>50796.07390795276</v>
       </c>
       <c r="O6" t="n">
-        <v>50796.07390795316</v>
+        <v>50796.07390795276</v>
       </c>
       <c r="P6" t="n">
-        <v>50796.07390795289</v>
+        <v>50796.0739079527</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26747,7 +26747,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593295</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26765,13 +26765,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26969,10 +26969,10 @@
         <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-1.927833778037307e-12</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-12</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,16 +26981,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>283.6145663307293</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>130.1284849421818</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.1633100469522</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,10 +27591,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>97.31467535485737</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7922506064417</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>260.0590900900526</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>126.5651771653037</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>183.7838674984865</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>79.4625271434178</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>30.20169186836353</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>17.36734479495635</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>95.37935912336198</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681583</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844653</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974794</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953976</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003791</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.356529362317</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574969</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990094997</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099035</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746392</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781674</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356356</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806918</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451114</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345266</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502559</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798524</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752231</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026431</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353145</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138779</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233455</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837904</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970232</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002912</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987477</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905536</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238302</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898467</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.154213684046221</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430531</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311873</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451741999</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297385</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702017</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.167346909881</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316422</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883105</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085992</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802161</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895875</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712186</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553025</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112267</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780291</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T26" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798531</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J27" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,46 +33093,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H28" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J28" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780294</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T29" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798531</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987508</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,46 +33330,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J31" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780294</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J32" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623195</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746415</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R32" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T32" t="n">
-        <v>19.17787942451121</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798532</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I33" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837944</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905542</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H34" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I34" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J34" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P34" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.5562817895881</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712217</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112298</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33655,40 +33655,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138792</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33807,43 +33807,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026424</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,43 +34044,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34463,7 +34463,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987486</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407851</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265633</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923298</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302242</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129088</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359185</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908524</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636226</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152063</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597637</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609555</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340037</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013271</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004572</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525787</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.635950985961</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306577</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443188</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701972</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934828</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.856946167539</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226389</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451096</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789312</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>581.9206576708328</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,22 +36124,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P20" t="n">
-        <v>410.4035206551599</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36367,10 +36367,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>581.9206576708319</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36379,7 +36379,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265649</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>616.6425541386619</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230587</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248951</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359043</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152071</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306614</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226396</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789354</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407861</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265649</v>
       </c>
       <c r="L29" t="n">
-        <v>800.2926980400157</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>720.560694390854</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636239</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152071</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597769</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127293</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306614</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226396</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789354</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407861</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265649</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359016</v>
+        <v>852.7555845359052</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908547</v>
+        <v>720.560694390854</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636239</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152071</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004611</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165873</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887905</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120762</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427827</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>698.3731419517678</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509647</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.402182134005</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37476,7 +37476,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
         <v>281.932207763703</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407865</v>
+        <v>258.3236387357551</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265655</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923324</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.921115830227</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129117</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636244</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597567</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165882</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629122</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37953,7 +37953,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>568.6923583622655</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248955</v>
+        <v>798.7564048937573</v>
       </c>
       <c r="O44" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38111,7 +38111,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127271</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
